--- a/biology/Botanique/South_Park_(Ilford)/South_Park_(Ilford).xlsx
+++ b/biology/Botanique/South_Park_(Ilford)/South_Park_(Ilford).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">South Park est un parc édouardien situé au sud d'Ilford, dans l'est de Londres. Il s'agit d'un des plus grands espaces ouverts du quartier londonien de Redbridge. Il a récemment obtenu le statut de drapeau vert[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">South Park est un parc édouardien situé au sud d'Ilford, dans l'est de Londres. Il s'agit d'un des plus grands espaces ouverts du quartier londonien de Redbridge. Il a récemment obtenu le statut de drapeau vert.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Géographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le parc est un parc de 13,5 hectares [2] sur d'anciennes terres agricoles qui ont été vendues au Conseil d'Ilford en 1899 pour 11 200 £. Le parc a été ouvert au public le 10 mai 1902. Il contient un certain nombre de grands arbres, un lac qui est alimenté par Loxford Water et des installations de loisirs, notamment des courts de tennis et des terrains de football. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le parc est un parc de 13,5 hectares  sur d'anciennes terres agricoles qui ont été vendues au Conseil d'Ilford en 1899 pour 11 200 £. Le parc a été ouvert au public le 10 mai 1902. Il contient un certain nombre de grands arbres, un lac qui est alimenté par Loxford Water et des installations de loisirs, notamment des courts de tennis et des terrains de football. 
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Faune</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc abrite un certain nombre d'espèces sauvages, notamment des canards colverts, des bernaches du Canada, des canards fuligules, des oies cendrées et des cygnes tuberculés. Le grand cormoran, le héron cendré et les oies égyptiennes sont également fréquemment observés. 
 En 2011, un nouveau centre d'éducation et d'information sur la faune a été inauguré dans l'ancien hangar à bateaux dans le cadre d'un partenariat entre le London Borough of Redbridge et le South Park User Group. 
@@ -575,7 +591,9 @@
           <t>Alentours</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La zone autour du parc est devenue connue sous le nom de South Park et l'école primaire voisine, dont le bassin versant couvre une grande partie du sud de Redbridge, est connue sous le nom de South Park Primary School. 
 </t>
